--- a/5/1/1/1/Componentes M2 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M2 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Serie</t>
   </si>
@@ -395,6 +395,69 @@
   </si>
   <si>
     <t>30-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>02-07-2021</t>
+  </si>
+  <si>
+    <t>05-07-2021</t>
+  </si>
+  <si>
+    <t>06-07-2021</t>
+  </si>
+  <si>
+    <t>07-07-2021</t>
+  </si>
+  <si>
+    <t>08-07-2021</t>
+  </si>
+  <si>
+    <t>09-07-2021</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
+  </si>
+  <si>
+    <t>20-07-2021</t>
+  </si>
+  <si>
+    <t>21-07-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -752,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,6 +2196,237 @@
         <v>10489</v>
       </c>
     </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>70473</v>
+      </c>
+      <c r="C126">
+        <v>10505</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>70825</v>
+      </c>
+      <c r="C127">
+        <v>10518</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>70599</v>
+      </c>
+      <c r="C128">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>70595</v>
+      </c>
+      <c r="C129">
+        <v>10562</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>70683</v>
+      </c>
+      <c r="C130">
+        <v>10581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>70433</v>
+      </c>
+      <c r="C131">
+        <v>10597</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>70553</v>
+      </c>
+      <c r="C132">
+        <v>10621</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>70241</v>
+      </c>
+      <c r="C133">
+        <v>10647</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>70421</v>
+      </c>
+      <c r="C134">
+        <v>10655</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>70265</v>
+      </c>
+      <c r="C135">
+        <v>10672</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>70402</v>
+      </c>
+      <c r="C136">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>69982</v>
+      </c>
+      <c r="C137">
+        <v>10699</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>69682</v>
+      </c>
+      <c r="C138">
+        <v>10708</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>69740</v>
+      </c>
+      <c r="C139">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>69826</v>
+      </c>
+      <c r="C140">
+        <v>10716</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>70031</v>
+      </c>
+      <c r="C141">
+        <v>10721</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>69642</v>
+      </c>
+      <c r="C142">
+        <v>10722</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>70008</v>
+      </c>
+      <c r="C143">
+        <v>10727</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>70156</v>
+      </c>
+      <c r="C144">
+        <v>10730</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>70208</v>
+      </c>
+      <c r="C145">
+        <v>10737</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>71852</v>
+      </c>
+      <c r="C146">
+        <v>10768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Componentes M2 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M2 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,72 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2427,6 +2493,248 @@
         <v>10768</v>
       </c>
     </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>71653</v>
+      </c>
+      <c r="C147">
+        <v>10798</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>71712</v>
+      </c>
+      <c r="C148">
+        <v>10813</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>71881</v>
+      </c>
+      <c r="C149">
+        <v>10830</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>71779</v>
+      </c>
+      <c r="C150">
+        <v>10852</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>71566</v>
+      </c>
+      <c r="C151">
+        <v>10878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>71357</v>
+      </c>
+      <c r="C152">
+        <v>10914</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>71375</v>
+      </c>
+      <c r="C153">
+        <v>10924</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>71024</v>
+      </c>
+      <c r="C154">
+        <v>10933</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>71087</v>
+      </c>
+      <c r="C155">
+        <v>10937</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>71049</v>
+      </c>
+      <c r="C156">
+        <v>10943</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>70949</v>
+      </c>
+      <c r="C157">
+        <v>10946</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>71133</v>
+      </c>
+      <c r="C158">
+        <v>10948</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>71375</v>
+      </c>
+      <c r="C159">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>71270</v>
+      </c>
+      <c r="C160">
+        <v>10952</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>71177</v>
+      </c>
+      <c r="C161">
+        <v>10958</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>70847</v>
+      </c>
+      <c r="C162">
+        <v>10952</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>70901</v>
+      </c>
+      <c r="C163">
+        <v>10952</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>70617</v>
+      </c>
+      <c r="C164">
+        <v>10951</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>70460</v>
+      </c>
+      <c r="C165">
+        <v>10949</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>70511</v>
+      </c>
+      <c r="C166">
+        <v>10951</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>70616</v>
+      </c>
+      <c r="C167">
+        <v>10969</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168">
+        <v>71141</v>
+      </c>
+      <c r="C168">
+        <v>11018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/1/1/1/Componentes M2 - saldos 2021 - Diaria.xlsx
+++ b/5/1/1/1/Componentes M2 - saldos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -524,6 +524,69 @@
   </si>
   <si>
     <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -881,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2729,10 +2792,241 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>71141</v>
+        <v>71850</v>
       </c>
       <c r="C168">
         <v>11018</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>71766</v>
+      </c>
+      <c r="C169">
+        <v>11031</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170">
+        <v>72282</v>
+      </c>
+      <c r="C170">
+        <v>11041</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171">
+        <v>72417</v>
+      </c>
+      <c r="C171">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>72196</v>
+      </c>
+      <c r="C172">
+        <v>11089</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>72256</v>
+      </c>
+      <c r="C173">
+        <v>11105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174">
+        <v>71947</v>
+      </c>
+      <c r="C174">
+        <v>11119</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175">
+        <v>71467</v>
+      </c>
+      <c r="C175">
+        <v>11133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>71505</v>
+      </c>
+      <c r="C176">
+        <v>11145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177">
+        <v>71409</v>
+      </c>
+      <c r="C177">
+        <v>11150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178">
+        <v>71536</v>
+      </c>
+      <c r="C178">
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179">
+        <v>71711</v>
+      </c>
+      <c r="C179">
+        <v>11172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180">
+        <v>71831</v>
+      </c>
+      <c r="C180">
+        <v>11188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181">
+        <v>71490</v>
+      </c>
+      <c r="C181">
+        <v>11198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182">
+        <v>71729</v>
+      </c>
+      <c r="C182">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183">
+        <v>71879</v>
+      </c>
+      <c r="C183">
+        <v>11199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>71997</v>
+      </c>
+      <c r="C184">
+        <v>11197</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>72245</v>
+      </c>
+      <c r="C185">
+        <v>11197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>72136</v>
+      </c>
+      <c r="C186">
+        <v>11188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>72333</v>
+      </c>
+      <c r="C187">
+        <v>11188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>72229</v>
+      </c>
+      <c r="C188">
+        <v>11192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>73052</v>
+      </c>
+      <c r="C189">
+        <v>11241</v>
       </c>
     </row>
   </sheetData>
